--- a/shinyapp/data/school_surveys.xlsx
+++ b/shinyapp/data/school_surveys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4076e51ce23f44c4/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A702B637-3D66-064F-B110-0A3790B44A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{467F9422-B908-4C80-AB7F-4FB4BE47BF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,11 +34,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Variables</t>
   </si>
   <si>
+    <t>Q1: I feel like I belong at this school</t>
+  </si>
+  <si>
+    <t>Q2: I learn about people who are different from me.</t>
+  </si>
+  <si>
+    <t>Q3: I help my class make decisions at school</t>
+  </si>
+  <si>
+    <t>Q5: Students treat students who are different from them with respect.</t>
+  </si>
+  <si>
+    <t>Q7: There are teachers or other adults at this school I could talk with if I needed help with something.</t>
+  </si>
+  <si>
+    <t>Q8: Teachers and other adults at this school expect me to do well in school.</t>
+  </si>
+  <si>
+    <t>Q13: I can explain an idea to other people and have them understand what I am saying.</t>
+  </si>
+  <si>
+    <t>Q18: I get a chance to look back at my work in school and fix it or make it better</t>
+  </si>
+  <si>
     <t>Forest Grove</t>
   </si>
   <si>
@@ -56,28 +81,7 @@
     <t>Sully</t>
   </si>
   <si>
-    <t>Q1: I feel like I belong at this school</t>
-  </si>
-  <si>
-    <t>Q2: I learn about people who are different from me.</t>
-  </si>
-  <si>
-    <t>Q3: I help my class make decisions at school</t>
-  </si>
-  <si>
-    <t>Q5: Students treat students who are different from them with respect.</t>
-  </si>
-  <si>
-    <t>Q7: There are teachers or other adults at this school I could talk with if I needed help with something.</t>
-  </si>
-  <si>
-    <t>Q8: Teachers and other adults at this school expect me to do well in school.</t>
-  </si>
-  <si>
-    <t>Q13: I can explain an idea to other people and have them understand what I am saying.</t>
-  </si>
-  <si>
-    <t>Q18: I get a chance to look back at my work in school and fix it or make it better</t>
+    <t>School</t>
   </si>
   <si>
     <t>1f. The school seeks ways to improve my child’s learning.</t>
@@ -110,9 +114,6 @@
     <t>4d. My child is being taught to respect people of different cultural, ethnic, and racial backgrounds</t>
   </si>
   <si>
-    <t>School</t>
-  </si>
-  <si>
     <t>22. I am comfortable asking teachers or other adults at this school for help to solve a problem I am having with another student.</t>
   </si>
   <si>
@@ -138,13 +139,16 @@
   </si>
   <si>
     <t>health and social services</t>
+  </si>
+  <si>
+    <t>Schools</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,10 +196,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri (Body)"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -300,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,8 +340,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -645,320 +669,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="94.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.62890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.20703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="13">
         <v>0.91</v>
       </c>
       <c r="C2" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.77</v>
+      </c>
+      <c r="E2" s="13">
         <v>0.87</v>
       </c>
-      <c r="D2" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0.82</v>
-      </c>
       <c r="F2" s="13">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="G2" s="13">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.96</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="13">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="C3" s="13">
         <v>0.81</v>
       </c>
       <c r="D3" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="C4" s="13">
         <v>0.82</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0.92</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0.77</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.59</v>
       </c>
       <c r="D4" s="13">
         <v>0.63</v>
       </c>
       <c r="E4" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="D5" s="13">
         <v>0.62</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0.87</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.81</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0.76</v>
       </c>
       <c r="E5" s="13">
         <v>0.68</v>
       </c>
       <c r="F5" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.77</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6">
+      <c r="A6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="13">
         <v>0.83</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.91</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.91</v>
       </c>
       <c r="F6" s="13">
         <v>0.91</v>
       </c>
       <c r="G6" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6">
+      <c r="A7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="F7" s="13">
         <v>0.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.98</v>
       </c>
       <c r="G7" s="13">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0.88</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.81</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0.77</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="H7" s="13">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.78</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0.88</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="I7" s="13">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16">
+    <row r="8" spans="1:10" ht="15.6">
+      <c r="A8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.6">
+      <c r="A9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.6">
+      <c r="A10" s="18"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="16">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="16">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="16">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="16">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="16">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="16">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="16">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="16">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="16">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="16"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="16"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="16"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="16"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="16"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="16"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -967,274 +960,551 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C7A5C7-63F7-43B8-9F60-FA9EDE4B9E50}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="90.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="90.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83984375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="13.578125" customWidth="1"/>
+    <col min="6" max="6" width="11.83984375" customWidth="1"/>
+    <col min="7" max="7" width="11.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>15</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="13">
         <v>0.87</v>
       </c>
       <c r="C2" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13">
         <v>0.93</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="E2" s="13">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0.82</v>
       </c>
       <c r="C3" s="13">
         <v>0.92</v>
       </c>
       <c r="D3" s="13">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="E3" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="H3" s="13">
         <v>0.94</v>
       </c>
-      <c r="F3" s="13">
+      <c r="I3" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="C6" s="13">
         <v>0.84</v>
       </c>
-      <c r="G3" s="13">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0.87</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="D6" s="13">
         <v>0.84</v>
       </c>
-      <c r="G4" s="13">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.84</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="E6" s="13">
         <v>0.94</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.98</v>
       </c>
       <c r="F6" s="13">
         <v>0.95</v>
       </c>
       <c r="G6" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="13">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="13">
-        <v>0.89</v>
-      </c>
       <c r="C7" s="13">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
       <c r="D7" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="F7" s="13">
         <v>0.96</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.92</v>
       </c>
       <c r="G7" s="13">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="15" t="s">
+      <c r="H7" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B16" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="13">
         <v>0.97</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C17" s="13">
         <v>0.94</v>
       </c>
-      <c r="D8" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="D17" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="F17" s="13">
         <v>0.93</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G17" s="13">
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="13">
+    <row r="18" spans="1:7">
+      <c r="A18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="13">
         <v>0.9</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C18" s="13">
         <v>0.95</v>
       </c>
-      <c r="D9" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="D18" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="F18" s="13">
         <v>0.89</v>
       </c>
-      <c r="G9" s="13">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="G18" s="13">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="13">
         <v>0.97</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C19" s="13">
         <v>0.92</v>
       </c>
-      <c r="D10" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D19" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="E19" s="13">
         <v>0.95</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F19" s="13">
         <v>0.94</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G19" s="13">
         <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="14">
+    <row r="20" spans="1:7">
+      <c r="A20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="14">
         <v>0.95</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C20" s="13">
         <v>0.97</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D20" s="13">
         <v>0.99</v>
       </c>
-      <c r="E11" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E20" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="F20" s="13">
         <v>0.91</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G20" s="13">
         <v>0.96</v>
       </c>
     </row>
@@ -1252,20 +1522,20 @@
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.41796875" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.68359375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="9" width="9.1640625" style="2"/>
+    <col min="6" max="6" width="11.578125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9.15625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -1294,7 +1564,7 @@
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7">
         <v>2.0499999999999998</v>
@@ -1323,7 +1593,7 @@
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1336,7 +1606,7 @@
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1349,7 +1619,7 @@
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>2.25</v>
@@ -1378,7 +1648,7 @@
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1391,7 +1661,7 @@
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1">
       <c r="A7" s="9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2113,26 +2383,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cf6ddc61-6b1c-4d58-9daa-562ef749da72" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3dcd26c-518f-4103-85e3-288a7f67eda7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E8A14C35611B44FAE08C7282FBC43BB" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8c258f84c8883adaba6693857568905">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3dcd26c-518f-4103-85e3-288a7f67eda7" xmlns:ns3="cf6ddc61-6b1c-4d58-9daa-562ef749da72" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b6e5ccfb7e00e6117bade8c94a8a5e1" ns2:_="" ns3:_="">
     <xsd:import namespace="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
@@ -2369,26 +2619,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10105A06-B244-4B9C-9441-A9A396878C07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cf6ddc61-6b1c-4d58-9daa-562ef749da72" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3dcd26c-518f-4103-85e3-288a7f67eda7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9FB5DA2-6E59-4213-AE03-7E92DEF1F695}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cf6ddc61-6b1c-4d58-9daa-562ef749da72"/>
-    <ds:schemaRef ds:uri="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98984EF-E07C-4BF9-9AAF-45F254BACD82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2405,4 +2656,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9FB5DA2-6E59-4213-AE03-7E92DEF1F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cf6ddc61-6b1c-4d58-9daa-562ef749da72"/>
+    <ds:schemaRef ds:uri="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10105A06-B244-4B9C-9441-A9A396878C07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/shinyapp/data/school_surveys.xlsx
+++ b/shinyapp/data/school_surveys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://virginiatech.sharepoint.com/sites/2022SummerDSPGCollaborationSpace/Shared Documents/Project-Loudoun/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="495" documentId="11_CD13E6B1F1527FCD7F4274AD0A7EEFCA32032F09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D822239A-8586-411F-AC39-E05378AD5B25}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A702B637-3D66-064F-B110-0A3790B44A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -145,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +190,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -295,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +328,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,44 +649,44 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="94.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="94.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -701,7 +709,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
@@ -724,7 +732,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
@@ -747,7 +755,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
@@ -770,7 +778,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7">
       <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
@@ -793,7 +801,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7">
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
@@ -816,7 +824,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7">
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
@@ -839,7 +847,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7">
       <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
@@ -862,49 +870,49 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:7" ht="16">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:7" ht="16">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:7" ht="16">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="16">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="16">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:7" ht="16">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -912,7 +920,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -920,7 +928,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="16">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -928,7 +936,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -936,7 +944,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -944,7 +952,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -966,18 +974,18 @@
       <selection pane="topRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="90.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="90.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7">
       <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
@@ -1023,7 +1031,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
@@ -1069,7 +1077,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>18</v>
       </c>
@@ -1092,7 +1100,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7">
       <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
@@ -1115,7 +1123,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7">
       <c r="A7" s="15" t="s">
         <v>20</v>
       </c>
@@ -1138,7 +1146,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7">
       <c r="A8" s="15" t="s">
         <v>21</v>
       </c>
@@ -1161,7 +1169,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7">
       <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
@@ -1184,7 +1192,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7">
       <c r="A10" s="15" t="s">
         <v>23</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7">
       <c r="A11" s="15" t="s">
         <v>24</v>
       </c>
@@ -1244,18 +1252,18 @@
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="2"/>
+    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="15">
+    <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1292,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:9" s="8" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1321,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="3" spans="1:9" s="8" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1326,7 +1334,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="4" spans="1:9" s="8" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1339,7 +1347,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="5" spans="1:9" s="8" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1368,7 +1376,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="6" spans="1:9" s="8" customFormat="1">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1381,7 +1389,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="15">
+    <row r="7" spans="1:9" s="11" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1394,7 +1402,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1407,7 +1415,7 @@
       <c r="H8"/>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -1417,7 +1425,7 @@
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1427,7 +1435,7 @@
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9">
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -1437,7 +1445,7 @@
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -1447,7 +1455,7 @@
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -1457,7 +1465,7 @@
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -1467,7 +1475,7 @@
       <c r="H14"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -1477,7 +1485,7 @@
       <c r="H15"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -1487,624 +1495,644 @@
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" customFormat="1" ht="15"/>
-    <row r="18" customFormat="1" ht="15"/>
-    <row r="19" customFormat="1" ht="15"/>
-    <row r="20" customFormat="1" ht="15"/>
-    <row r="21" customFormat="1" ht="15"/>
-    <row r="22" customFormat="1" ht="15"/>
-    <row r="23" customFormat="1" ht="15"/>
-    <row r="24" customFormat="1" ht="15"/>
-    <row r="25" customFormat="1" ht="15"/>
-    <row r="26" customFormat="1" ht="15"/>
-    <row r="27" customFormat="1" ht="15"/>
-    <row r="28" customFormat="1" ht="15"/>
-    <row r="29" customFormat="1" ht="15"/>
-    <row r="30" customFormat="1" ht="15"/>
-    <row r="31" customFormat="1" ht="15"/>
-    <row r="32" customFormat="1" ht="15"/>
-    <row r="33" customFormat="1" ht="15"/>
-    <row r="34" customFormat="1" ht="15"/>
-    <row r="35" customFormat="1" ht="15"/>
-    <row r="36" customFormat="1" ht="15"/>
-    <row r="37" customFormat="1" ht="15"/>
-    <row r="38" customFormat="1" ht="15"/>
-    <row r="39" customFormat="1" ht="15"/>
-    <row r="40" customFormat="1" ht="15"/>
-    <row r="41" customFormat="1" ht="15"/>
-    <row r="42" customFormat="1" ht="15"/>
-    <row r="43" customFormat="1" ht="15"/>
-    <row r="44" customFormat="1" ht="15"/>
-    <row r="45" customFormat="1" ht="15"/>
-    <row r="46" customFormat="1" ht="15"/>
-    <row r="47" customFormat="1" ht="15"/>
-    <row r="48" customFormat="1" ht="15"/>
-    <row r="49" customFormat="1" ht="15"/>
-    <row r="50" customFormat="1" ht="15"/>
-    <row r="51" customFormat="1" ht="15"/>
-    <row r="52" customFormat="1" ht="15"/>
-    <row r="53" customFormat="1" ht="15"/>
-    <row r="54" customFormat="1" ht="15"/>
-    <row r="55" customFormat="1" ht="15"/>
-    <row r="56" customFormat="1" ht="15"/>
-    <row r="57" customFormat="1" ht="15"/>
-    <row r="58" customFormat="1" ht="15"/>
-    <row r="59" customFormat="1" ht="15"/>
-    <row r="60" customFormat="1" ht="15"/>
-    <row r="61" customFormat="1" ht="15"/>
-    <row r="62" customFormat="1" ht="15"/>
-    <row r="63" customFormat="1" ht="15"/>
-    <row r="64" customFormat="1" ht="15"/>
-    <row r="65" customFormat="1" ht="15"/>
-    <row r="66" customFormat="1" ht="15"/>
-    <row r="67" customFormat="1" ht="15"/>
-    <row r="68" customFormat="1" ht="15"/>
-    <row r="69" customFormat="1" ht="15"/>
-    <row r="70" customFormat="1" ht="15"/>
-    <row r="71" customFormat="1" ht="15"/>
-    <row r="72" customFormat="1" ht="15"/>
-    <row r="73" customFormat="1" ht="15"/>
-    <row r="74" customFormat="1" ht="15"/>
-    <row r="75" customFormat="1" ht="15"/>
-    <row r="76" customFormat="1" ht="15"/>
-    <row r="77" customFormat="1" ht="15"/>
-    <row r="78" customFormat="1" ht="15"/>
-    <row r="79" customFormat="1" ht="15"/>
-    <row r="80" customFormat="1" ht="15"/>
-    <row r="81" customFormat="1" ht="15"/>
-    <row r="82" customFormat="1" ht="15"/>
-    <row r="83" customFormat="1" ht="15"/>
-    <row r="84" customFormat="1" ht="15"/>
-    <row r="85" customFormat="1" ht="15"/>
-    <row r="86" customFormat="1" ht="15"/>
-    <row r="87" customFormat="1" ht="15"/>
-    <row r="88" customFormat="1" ht="15"/>
-    <row r="89" customFormat="1" ht="15"/>
-    <row r="90" customFormat="1" ht="15"/>
-    <row r="91" customFormat="1" ht="15"/>
-    <row r="92" customFormat="1" ht="15"/>
-    <row r="93" customFormat="1" ht="15"/>
-    <row r="94" customFormat="1" ht="15"/>
-    <row r="95" customFormat="1" ht="15"/>
-    <row r="96" customFormat="1" ht="15"/>
-    <row r="97" customFormat="1" ht="15"/>
-    <row r="98" customFormat="1" ht="15"/>
-    <row r="99" customFormat="1" ht="15"/>
-    <row r="100" customFormat="1" ht="15"/>
-    <row r="101" customFormat="1" ht="15"/>
-    <row r="102" customFormat="1" ht="15"/>
-    <row r="103" customFormat="1" ht="15"/>
-    <row r="104" customFormat="1" ht="15"/>
-    <row r="105" customFormat="1" ht="15"/>
-    <row r="106" customFormat="1" ht="15"/>
-    <row r="107" customFormat="1" ht="15"/>
-    <row r="108" customFormat="1" ht="15"/>
-    <row r="109" customFormat="1" ht="15"/>
-    <row r="110" customFormat="1" ht="15"/>
-    <row r="111" customFormat="1" ht="15"/>
-    <row r="112" customFormat="1" ht="15"/>
-    <row r="113" customFormat="1" ht="15"/>
-    <row r="114" customFormat="1" ht="15"/>
-    <row r="115" customFormat="1" ht="15"/>
-    <row r="116" customFormat="1" ht="15"/>
-    <row r="117" customFormat="1" ht="15"/>
-    <row r="118" customFormat="1" ht="15"/>
-    <row r="119" customFormat="1" ht="15"/>
-    <row r="120" customFormat="1" ht="15"/>
-    <row r="121" customFormat="1" ht="15"/>
-    <row r="122" customFormat="1" ht="15"/>
-    <row r="123" customFormat="1" ht="15"/>
-    <row r="124" customFormat="1" ht="15"/>
-    <row r="125" customFormat="1" ht="15"/>
-    <row r="126" customFormat="1" ht="15"/>
-    <row r="127" customFormat="1" ht="15"/>
-    <row r="128" customFormat="1" ht="15"/>
-    <row r="129" customFormat="1" ht="15"/>
-    <row r="130" customFormat="1" ht="15"/>
-    <row r="131" customFormat="1" ht="15"/>
-    <row r="132" customFormat="1" ht="15"/>
-    <row r="133" customFormat="1" ht="15"/>
-    <row r="134" customFormat="1" ht="15"/>
-    <row r="135" customFormat="1" ht="15"/>
-    <row r="136" customFormat="1" ht="15"/>
-    <row r="137" customFormat="1" ht="15"/>
-    <row r="138" customFormat="1" ht="15"/>
-    <row r="139" customFormat="1" ht="15"/>
-    <row r="140" customFormat="1" ht="15"/>
-    <row r="141" customFormat="1" ht="15"/>
-    <row r="142" customFormat="1" ht="15"/>
-    <row r="143" customFormat="1" ht="15"/>
-    <row r="144" customFormat="1" ht="15"/>
-    <row r="145" customFormat="1" ht="15"/>
-    <row r="146" customFormat="1" ht="15"/>
-    <row r="147" customFormat="1" ht="15"/>
-    <row r="148" customFormat="1" ht="15"/>
-    <row r="149" customFormat="1" ht="15"/>
-    <row r="150" customFormat="1" ht="15"/>
-    <row r="151" customFormat="1" ht="15"/>
-    <row r="152" customFormat="1" ht="15"/>
-    <row r="153" customFormat="1" ht="15"/>
-    <row r="154" customFormat="1" ht="15"/>
-    <row r="155" customFormat="1" ht="15"/>
-    <row r="156" customFormat="1" ht="15"/>
-    <row r="157" customFormat="1" ht="15"/>
-    <row r="158" customFormat="1" ht="15"/>
-    <row r="159" customFormat="1" ht="15"/>
-    <row r="160" customFormat="1" ht="15"/>
-    <row r="161" customFormat="1" ht="15"/>
-    <row r="162" customFormat="1" ht="15"/>
-    <row r="163" customFormat="1" ht="15"/>
-    <row r="164" customFormat="1" ht="15"/>
-    <row r="165" customFormat="1" ht="15"/>
-    <row r="166" customFormat="1" ht="15"/>
-    <row r="167" customFormat="1" ht="15"/>
-    <row r="168" customFormat="1" ht="15"/>
-    <row r="169" customFormat="1" ht="15"/>
-    <row r="170" customFormat="1" ht="15"/>
-    <row r="171" customFormat="1" ht="15"/>
-    <row r="172" customFormat="1" ht="15"/>
-    <row r="173" customFormat="1" ht="15"/>
-    <row r="174" customFormat="1" ht="15"/>
-    <row r="175" customFormat="1" ht="15"/>
-    <row r="176" customFormat="1" ht="15"/>
-    <row r="177" customFormat="1" ht="15"/>
-    <row r="178" customFormat="1" ht="15"/>
-    <row r="179" customFormat="1" ht="15"/>
-    <row r="180" customFormat="1" ht="15"/>
-    <row r="181" customFormat="1" ht="15"/>
-    <row r="182" customFormat="1" ht="15"/>
-    <row r="183" customFormat="1" ht="15"/>
-    <row r="184" customFormat="1" ht="15"/>
-    <row r="185" customFormat="1" ht="15"/>
-    <row r="186" customFormat="1" ht="15"/>
-    <row r="187" customFormat="1" ht="15"/>
-    <row r="188" customFormat="1" ht="15"/>
-    <row r="189" customFormat="1" ht="15"/>
-    <row r="190" customFormat="1" ht="15"/>
-    <row r="191" customFormat="1" ht="15"/>
-    <row r="192" customFormat="1" ht="15"/>
-    <row r="193" customFormat="1" ht="15"/>
-    <row r="194" customFormat="1" ht="15"/>
-    <row r="195" customFormat="1" ht="15"/>
-    <row r="196" customFormat="1" ht="15"/>
-    <row r="197" customFormat="1" ht="15"/>
-    <row r="198" customFormat="1" ht="15"/>
-    <row r="199" customFormat="1" ht="15"/>
-    <row r="200" customFormat="1" ht="15"/>
-    <row r="201" customFormat="1" ht="15"/>
-    <row r="202" customFormat="1" ht="15"/>
-    <row r="203" customFormat="1" ht="15"/>
-    <row r="204" customFormat="1" ht="15"/>
-    <row r="205" customFormat="1" ht="15"/>
-    <row r="206" customFormat="1" ht="15"/>
-    <row r="207" customFormat="1" ht="15"/>
-    <row r="208" customFormat="1" ht="15"/>
-    <row r="209" customFormat="1" ht="15"/>
-    <row r="210" customFormat="1" ht="15"/>
-    <row r="211" customFormat="1" ht="15"/>
-    <row r="212" customFormat="1" ht="15"/>
-    <row r="213" customFormat="1" ht="15"/>
-    <row r="214" customFormat="1" ht="15"/>
-    <row r="215" customFormat="1" ht="15"/>
-    <row r="216" customFormat="1" ht="15"/>
-    <row r="217" customFormat="1" ht="15"/>
-    <row r="218" customFormat="1" ht="15"/>
-    <row r="219" customFormat="1" ht="15"/>
-    <row r="220" customFormat="1" ht="15"/>
-    <row r="221" customFormat="1" ht="15"/>
-    <row r="222" customFormat="1" ht="15"/>
-    <row r="223" customFormat="1" ht="15"/>
-    <row r="224" customFormat="1" ht="15"/>
-    <row r="225" customFormat="1" ht="15"/>
-    <row r="226" customFormat="1" ht="15"/>
-    <row r="227" customFormat="1" ht="15"/>
-    <row r="228" customFormat="1" ht="15"/>
-    <row r="229" customFormat="1" ht="15"/>
-    <row r="230" customFormat="1" ht="15"/>
-    <row r="231" customFormat="1" ht="15"/>
-    <row r="232" customFormat="1" ht="15"/>
-    <row r="233" customFormat="1" ht="15"/>
-    <row r="234" customFormat="1" ht="15"/>
-    <row r="235" customFormat="1" ht="15"/>
-    <row r="236" customFormat="1" ht="15"/>
-    <row r="237" customFormat="1" ht="15"/>
-    <row r="238" customFormat="1" ht="15"/>
-    <row r="239" customFormat="1" ht="15"/>
-    <row r="240" customFormat="1" ht="15"/>
-    <row r="241" customFormat="1" ht="15"/>
-    <row r="242" customFormat="1" ht="15"/>
-    <row r="243" customFormat="1" ht="15"/>
-    <row r="244" customFormat="1" ht="15"/>
-    <row r="245" customFormat="1" ht="15"/>
-    <row r="246" customFormat="1" ht="15"/>
-    <row r="247" customFormat="1" ht="15"/>
-    <row r="248" customFormat="1" ht="15"/>
-    <row r="249" customFormat="1" ht="15"/>
-    <row r="250" customFormat="1" ht="15"/>
-    <row r="251" customFormat="1" ht="15"/>
-    <row r="252" customFormat="1" ht="15"/>
-    <row r="253" customFormat="1" ht="15"/>
-    <row r="254" customFormat="1" ht="15"/>
-    <row r="255" customFormat="1" ht="15"/>
-    <row r="256" customFormat="1" ht="15"/>
-    <row r="257" customFormat="1" ht="15"/>
-    <row r="258" customFormat="1" ht="15"/>
-    <row r="259" customFormat="1" ht="15"/>
-    <row r="260" customFormat="1" ht="15"/>
-    <row r="261" customFormat="1" ht="15"/>
-    <row r="262" customFormat="1" ht="15"/>
-    <row r="263" customFormat="1" ht="15"/>
-    <row r="264" customFormat="1" ht="15"/>
-    <row r="265" customFormat="1" ht="15"/>
-    <row r="266" customFormat="1" ht="15"/>
-    <row r="267" customFormat="1" ht="15"/>
-    <row r="268" customFormat="1" ht="15"/>
-    <row r="269" customFormat="1" ht="15"/>
-    <row r="270" customFormat="1" ht="15"/>
-    <row r="271" customFormat="1" ht="15"/>
-    <row r="272" customFormat="1" ht="15"/>
-    <row r="273" customFormat="1" ht="15"/>
-    <row r="274" customFormat="1" ht="15"/>
-    <row r="275" customFormat="1" ht="15"/>
-    <row r="276" customFormat="1" ht="15"/>
-    <row r="277" customFormat="1" ht="15"/>
-    <row r="278" customFormat="1" ht="15"/>
-    <row r="279" customFormat="1" ht="15"/>
-    <row r="280" customFormat="1" ht="15"/>
-    <row r="281" customFormat="1" ht="15"/>
-    <row r="282" customFormat="1" ht="15"/>
-    <row r="283" customFormat="1" ht="15"/>
-    <row r="284" customFormat="1" ht="15"/>
-    <row r="285" customFormat="1" ht="15"/>
-    <row r="286" customFormat="1" ht="15"/>
-    <row r="287" customFormat="1" ht="15"/>
-    <row r="288" customFormat="1" ht="15"/>
-    <row r="289" customFormat="1" ht="15"/>
-    <row r="290" customFormat="1" ht="15"/>
-    <row r="291" customFormat="1" ht="15"/>
-    <row r="292" customFormat="1" ht="15"/>
-    <row r="293" customFormat="1" ht="15"/>
-    <row r="294" customFormat="1" ht="15"/>
-    <row r="295" customFormat="1" ht="15"/>
-    <row r="296" customFormat="1" ht="15"/>
-    <row r="297" customFormat="1" ht="15"/>
-    <row r="298" customFormat="1" ht="15"/>
-    <row r="299" customFormat="1" ht="15"/>
-    <row r="300" customFormat="1" ht="15"/>
-    <row r="301" customFormat="1" ht="15"/>
-    <row r="302" customFormat="1" ht="15"/>
-    <row r="303" customFormat="1" ht="15"/>
-    <row r="304" customFormat="1" ht="15"/>
-    <row r="305" customFormat="1" ht="15"/>
-    <row r="306" customFormat="1" ht="15"/>
-    <row r="307" customFormat="1" ht="15"/>
-    <row r="308" customFormat="1" ht="15"/>
-    <row r="309" customFormat="1" ht="15"/>
-    <row r="310" customFormat="1" ht="15"/>
-    <row r="311" customFormat="1" ht="15"/>
-    <row r="312" customFormat="1" ht="15"/>
-    <row r="313" customFormat="1" ht="15"/>
-    <row r="314" customFormat="1" ht="15"/>
-    <row r="315" customFormat="1" ht="15"/>
-    <row r="316" customFormat="1" ht="15"/>
-    <row r="317" customFormat="1" ht="15"/>
-    <row r="318" customFormat="1" ht="15"/>
-    <row r="319" customFormat="1" ht="15"/>
-    <row r="320" customFormat="1" ht="15"/>
-    <row r="321" customFormat="1" ht="15"/>
-    <row r="322" customFormat="1" ht="15"/>
-    <row r="323" customFormat="1" ht="15"/>
-    <row r="324" customFormat="1" ht="15"/>
-    <row r="325" customFormat="1" ht="15"/>
-    <row r="326" customFormat="1" ht="15"/>
-    <row r="327" customFormat="1" ht="15"/>
-    <row r="328" customFormat="1" ht="15"/>
-    <row r="329" customFormat="1" ht="15"/>
-    <row r="330" customFormat="1" ht="15"/>
-    <row r="331" customFormat="1" ht="15"/>
-    <row r="332" customFormat="1" ht="15"/>
-    <row r="333" customFormat="1" ht="15"/>
-    <row r="334" customFormat="1" ht="15"/>
-    <row r="335" customFormat="1" ht="15"/>
-    <row r="336" customFormat="1" ht="15"/>
-    <row r="337" customFormat="1" ht="15"/>
-    <row r="338" customFormat="1" ht="15"/>
-    <row r="339" customFormat="1" ht="15"/>
-    <row r="340" customFormat="1" ht="15"/>
-    <row r="341" customFormat="1" ht="15"/>
-    <row r="342" customFormat="1" ht="15"/>
-    <row r="343" customFormat="1" ht="15"/>
-    <row r="344" customFormat="1" ht="15"/>
-    <row r="345" customFormat="1" ht="15"/>
-    <row r="346" customFormat="1" ht="15"/>
-    <row r="347" customFormat="1" ht="15"/>
-    <row r="348" customFormat="1" ht="15"/>
-    <row r="349" customFormat="1" ht="15"/>
-    <row r="350" customFormat="1" ht="15"/>
-    <row r="351" customFormat="1" ht="15"/>
-    <row r="352" customFormat="1" ht="15"/>
-    <row r="353" customFormat="1" ht="15"/>
-    <row r="354" customFormat="1" ht="15"/>
-    <row r="355" customFormat="1" ht="15"/>
-    <row r="356" customFormat="1" ht="15"/>
-    <row r="357" customFormat="1" ht="15"/>
-    <row r="358" customFormat="1" ht="15"/>
-    <row r="359" customFormat="1" ht="15"/>
-    <row r="360" customFormat="1" ht="15"/>
-    <row r="361" customFormat="1" ht="15"/>
-    <row r="362" customFormat="1" ht="15"/>
-    <row r="363" customFormat="1" ht="15"/>
-    <row r="364" customFormat="1" ht="15"/>
-    <row r="365" customFormat="1" ht="15"/>
-    <row r="366" customFormat="1" ht="15"/>
-    <row r="367" customFormat="1" ht="15"/>
-    <row r="368" customFormat="1" ht="15"/>
-    <row r="369" customFormat="1" ht="15"/>
-    <row r="370" customFormat="1" ht="15"/>
-    <row r="371" customFormat="1" ht="15"/>
-    <row r="372" customFormat="1" ht="15"/>
-    <row r="373" customFormat="1" ht="15"/>
-    <row r="374" customFormat="1" ht="15"/>
-    <row r="375" customFormat="1" ht="15"/>
-    <row r="376" customFormat="1" ht="15"/>
-    <row r="377" customFormat="1" ht="15"/>
-    <row r="378" customFormat="1" ht="15"/>
-    <row r="379" customFormat="1" ht="15"/>
-    <row r="380" customFormat="1" ht="15"/>
-    <row r="381" customFormat="1" ht="15"/>
-    <row r="382" customFormat="1" ht="15"/>
-    <row r="383" customFormat="1" ht="15"/>
-    <row r="384" customFormat="1" ht="15"/>
-    <row r="385" customFormat="1" ht="15"/>
-    <row r="386" customFormat="1" ht="15"/>
-    <row r="387" customFormat="1" ht="15"/>
-    <row r="388" customFormat="1" ht="15"/>
-    <row r="389" customFormat="1" ht="15"/>
-    <row r="390" customFormat="1" ht="15"/>
-    <row r="391" customFormat="1" ht="15"/>
-    <row r="392" customFormat="1" ht="15"/>
-    <row r="393" customFormat="1" ht="15"/>
-    <row r="394" customFormat="1" ht="15"/>
-    <row r="395" customFormat="1" ht="15"/>
-    <row r="396" customFormat="1" ht="15"/>
-    <row r="397" customFormat="1" ht="15"/>
-    <row r="398" customFormat="1" ht="15"/>
-    <row r="399" customFormat="1" ht="15"/>
-    <row r="400" customFormat="1" ht="15"/>
-    <row r="401" customFormat="1" ht="15"/>
-    <row r="402" customFormat="1" ht="15"/>
-    <row r="403" customFormat="1" ht="15"/>
-    <row r="404" customFormat="1" ht="15"/>
-    <row r="405" customFormat="1" ht="15"/>
-    <row r="406" customFormat="1" ht="15"/>
-    <row r="407" customFormat="1" ht="15"/>
-    <row r="408" customFormat="1" ht="15"/>
-    <row r="409" customFormat="1" ht="15"/>
-    <row r="410" customFormat="1" ht="15"/>
-    <row r="411" customFormat="1" ht="15"/>
-    <row r="412" customFormat="1" ht="15"/>
-    <row r="413" customFormat="1" ht="15"/>
-    <row r="414" customFormat="1" ht="15"/>
-    <row r="415" customFormat="1" ht="15"/>
-    <row r="416" customFormat="1" ht="15"/>
-    <row r="417" customFormat="1" ht="15"/>
-    <row r="418" customFormat="1" ht="15"/>
-    <row r="419" customFormat="1" ht="15"/>
-    <row r="420" customFormat="1" ht="15"/>
-    <row r="421" customFormat="1" ht="15"/>
-    <row r="422" customFormat="1" ht="15"/>
-    <row r="423" customFormat="1" ht="15"/>
-    <row r="424" customFormat="1" ht="15"/>
-    <row r="425" customFormat="1" ht="15"/>
-    <row r="426" customFormat="1" ht="15"/>
-    <row r="427" customFormat="1" ht="15"/>
-    <row r="428" customFormat="1" ht="15"/>
-    <row r="429" customFormat="1" ht="15"/>
-    <row r="430" customFormat="1" ht="15"/>
-    <row r="431" customFormat="1" ht="15"/>
-    <row r="432" customFormat="1" ht="15"/>
-    <row r="433" customFormat="1" ht="15"/>
-    <row r="434" customFormat="1" ht="15"/>
-    <row r="435" customFormat="1" ht="15"/>
-    <row r="436" customFormat="1" ht="15"/>
-    <row r="437" customFormat="1" ht="15"/>
-    <row r="438" customFormat="1" ht="15"/>
-    <row r="439" customFormat="1" ht="15"/>
-    <row r="440" customFormat="1" ht="15"/>
-    <row r="441" customFormat="1" ht="15"/>
-    <row r="442" customFormat="1" ht="15"/>
-    <row r="443" customFormat="1" ht="15"/>
-    <row r="444" customFormat="1" ht="15"/>
-    <row r="445" customFormat="1" ht="15"/>
-    <row r="446" customFormat="1" ht="15"/>
-    <row r="447" customFormat="1" ht="15"/>
-    <row r="448" customFormat="1" ht="15"/>
-    <row r="449" customFormat="1" ht="15"/>
-    <row r="450" customFormat="1" ht="15"/>
-    <row r="451" customFormat="1" ht="15"/>
-    <row r="452" customFormat="1" ht="15"/>
-    <row r="453" customFormat="1" ht="15"/>
-    <row r="454" customFormat="1" ht="15"/>
-    <row r="455" customFormat="1" ht="15"/>
-    <row r="456" customFormat="1" ht="15"/>
-    <row r="457" customFormat="1" ht="15"/>
-    <row r="458" customFormat="1" ht="15"/>
-    <row r="459" customFormat="1" ht="15"/>
-    <row r="460" customFormat="1" ht="15"/>
-    <row r="461" customFormat="1" ht="15"/>
-    <row r="462" customFormat="1" ht="15"/>
-    <row r="463" customFormat="1" ht="15"/>
-    <row r="464" customFormat="1" ht="15"/>
-    <row r="465" customFormat="1" ht="15"/>
-    <row r="466" customFormat="1" ht="15"/>
-    <row r="467" customFormat="1" ht="15"/>
-    <row r="468" customFormat="1" ht="15"/>
-    <row r="469" customFormat="1" ht="15"/>
-    <row r="470" customFormat="1" ht="15"/>
-    <row r="471" customFormat="1" ht="15"/>
-    <row r="472" customFormat="1" ht="15"/>
-    <row r="473" customFormat="1" ht="15"/>
-    <row r="474" customFormat="1" ht="15"/>
-    <row r="475" customFormat="1" ht="15"/>
-    <row r="476" customFormat="1" ht="15"/>
-    <row r="477" customFormat="1" ht="15"/>
-    <row r="478" customFormat="1" ht="15"/>
-    <row r="479" customFormat="1" ht="15"/>
-    <row r="480" customFormat="1" ht="15"/>
-    <row r="481" customFormat="1" ht="15"/>
-    <row r="482" customFormat="1" ht="15"/>
-    <row r="483" customFormat="1" ht="15"/>
-    <row r="484" customFormat="1" ht="15"/>
-    <row r="485" customFormat="1" ht="15"/>
-    <row r="486" customFormat="1" ht="15"/>
-    <row r="487" customFormat="1" ht="15"/>
-    <row r="488" customFormat="1" ht="15"/>
-    <row r="489" customFormat="1" ht="15"/>
-    <row r="490" customFormat="1" ht="15"/>
-    <row r="491" customFormat="1" ht="15"/>
-    <row r="492" customFormat="1" ht="15"/>
-    <row r="493" customFormat="1" ht="15"/>
-    <row r="494" customFormat="1" ht="15"/>
-    <row r="495" customFormat="1" ht="15"/>
-    <row r="496" customFormat="1" ht="15"/>
-    <row r="497" customFormat="1" ht="15"/>
-    <row r="498" customFormat="1" ht="15"/>
-    <row r="499" customFormat="1" ht="15"/>
-    <row r="500" customFormat="1" ht="15"/>
-    <row r="501" customFormat="1" ht="15"/>
-    <row r="502" customFormat="1" ht="15"/>
-    <row r="503" customFormat="1" ht="15"/>
-    <row r="504" customFormat="1" ht="15"/>
-    <row r="505" customFormat="1" ht="15"/>
-    <row r="506" customFormat="1" ht="15"/>
-    <row r="507" customFormat="1" ht="15"/>
-    <row r="508" customFormat="1" ht="15"/>
-    <row r="509" customFormat="1" ht="15"/>
-    <row r="510" customFormat="1" ht="15"/>
-    <row r="511" customFormat="1" ht="15"/>
-    <row r="512" customFormat="1" ht="15"/>
-    <row r="513" customFormat="1" ht="15"/>
-    <row r="514" customFormat="1" ht="15"/>
-    <row r="515" customFormat="1" ht="15"/>
-    <row r="516" customFormat="1" ht="15"/>
-    <row r="517" customFormat="1" ht="15"/>
-    <row r="518" customFormat="1" ht="15"/>
-    <row r="519" customFormat="1" ht="15"/>
-    <row r="520" customFormat="1" ht="15"/>
-    <row r="521" customFormat="1" ht="15"/>
-    <row r="522" customFormat="1" ht="15"/>
-    <row r="523" customFormat="1" ht="15"/>
-    <row r="524" customFormat="1" ht="15"/>
-    <row r="525" customFormat="1" ht="15"/>
-    <row r="526" customFormat="1" ht="15"/>
-    <row r="527" customFormat="1" ht="15"/>
-    <row r="528" customFormat="1" ht="15"/>
-    <row r="529" customFormat="1" ht="15"/>
-    <row r="530" customFormat="1" ht="15"/>
-    <row r="531" customFormat="1" ht="15"/>
-    <row r="532" customFormat="1" ht="15"/>
-    <row r="533" customFormat="1" ht="15"/>
-    <row r="534" customFormat="1" ht="15"/>
-    <row r="535" customFormat="1" ht="15"/>
-    <row r="536" customFormat="1" ht="15"/>
-    <row r="537" customFormat="1" ht="15"/>
-    <row r="538" customFormat="1" ht="15"/>
-    <row r="539" customFormat="1" ht="15"/>
-    <row r="540" customFormat="1" ht="15"/>
-    <row r="541" customFormat="1" ht="15"/>
-    <row r="542" customFormat="1" ht="15"/>
-    <row r="543" customFormat="1" ht="15"/>
-    <row r="544" customFormat="1" ht="15"/>
-    <row r="545" customFormat="1" ht="15"/>
-    <row r="546" customFormat="1" ht="15"/>
-    <row r="547" customFormat="1" ht="15"/>
-    <row r="548" customFormat="1" ht="15"/>
-    <row r="549" customFormat="1" ht="15"/>
-    <row r="550" customFormat="1" ht="15"/>
-    <row r="551" customFormat="1" ht="15"/>
-    <row r="552" customFormat="1" ht="15"/>
-    <row r="553" customFormat="1" ht="15"/>
-    <row r="554" customFormat="1" ht="15"/>
-    <row r="555" customFormat="1" ht="15"/>
-    <row r="556" customFormat="1" ht="15"/>
-    <row r="557" customFormat="1" ht="15"/>
-    <row r="558" customFormat="1" ht="15"/>
-    <row r="559" customFormat="1" ht="15"/>
-    <row r="560" customFormat="1" ht="15"/>
-    <row r="561" customFormat="1" ht="15"/>
-    <row r="562" customFormat="1" ht="15"/>
-    <row r="563" customFormat="1" ht="15"/>
-    <row r="564" customFormat="1" ht="15"/>
-    <row r="565" customFormat="1" ht="15"/>
-    <row r="566" customFormat="1" ht="15"/>
-    <row r="567" customFormat="1" ht="15"/>
-    <row r="568" customFormat="1" ht="15"/>
-    <row r="569" customFormat="1" ht="15"/>
-    <row r="570" customFormat="1" ht="15"/>
-    <row r="571" customFormat="1" ht="15"/>
-    <row r="572" customFormat="1" ht="15"/>
-    <row r="573" customFormat="1" ht="15"/>
-    <row r="574" customFormat="1" ht="15"/>
-    <row r="575" customFormat="1" ht="15"/>
-    <row r="576" customFormat="1" ht="15"/>
-    <row r="577" customFormat="1" ht="15"/>
-    <row r="578" customFormat="1" ht="15"/>
-    <row r="579" customFormat="1" ht="15"/>
-    <row r="580" customFormat="1" ht="15"/>
-    <row r="581" customFormat="1" ht="15"/>
-    <row r="582" customFormat="1" ht="15"/>
-    <row r="583" customFormat="1" ht="15"/>
-    <row r="584" customFormat="1" ht="15"/>
-    <row r="585" customFormat="1" ht="15"/>
-    <row r="586" customFormat="1" ht="15"/>
-    <row r="587" customFormat="1" ht="15"/>
-    <row r="588" customFormat="1" ht="15"/>
-    <row r="589" customFormat="1" ht="15"/>
-    <row r="590" customFormat="1" ht="15"/>
-    <row r="591" customFormat="1" ht="15"/>
-    <row r="592" customFormat="1" ht="15"/>
-    <row r="593" customFormat="1" ht="15"/>
-    <row r="594" customFormat="1" ht="15"/>
-    <row r="595" customFormat="1" ht="15"/>
-    <row r="596" customFormat="1" ht="15"/>
-    <row r="597" customFormat="1" ht="15"/>
-    <row r="598" customFormat="1" ht="15"/>
-    <row r="599" customFormat="1" ht="15"/>
-    <row r="600" customFormat="1" ht="15"/>
-    <row r="601" customFormat="1" ht="15"/>
-    <row r="602" customFormat="1" ht="15"/>
-    <row r="603" customFormat="1" ht="15"/>
-    <row r="604" customFormat="1" ht="15"/>
-    <row r="605" customFormat="1" ht="15"/>
-    <row r="606" customFormat="1" ht="15"/>
-    <row r="607" customFormat="1" ht="15"/>
-    <row r="608" customFormat="1" ht="15"/>
-    <row r="609" customFormat="1" ht="15"/>
-    <row r="610" customFormat="1" ht="15"/>
-    <row r="611" customFormat="1" ht="15"/>
-    <row r="612" customFormat="1" ht="15"/>
-    <row r="613" customFormat="1" ht="15"/>
-    <row r="614" customFormat="1" ht="15"/>
-    <row r="615" customFormat="1" ht="15"/>
-    <row r="616" customFormat="1" ht="15"/>
-    <row r="617" customFormat="1" ht="15"/>
-    <row r="618" customFormat="1" ht="15"/>
-    <row r="619" customFormat="1" ht="15"/>
-    <row r="620" customFormat="1" ht="15"/>
-    <row r="621" customFormat="1" ht="15"/>
-    <row r="622" customFormat="1" ht="15"/>
-    <row r="623" customFormat="1" ht="15"/>
-    <row r="624" customFormat="1" ht="15"/>
-    <row r="625" customFormat="1" ht="15"/>
-    <row r="626" customFormat="1" ht="15"/>
-    <row r="627" customFormat="1" ht="15"/>
-    <row r="628" customFormat="1" ht="15"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1"/>
+    <row r="44" customFormat="1"/>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
+    <row r="59" customFormat="1"/>
+    <row r="60" customFormat="1"/>
+    <row r="61" customFormat="1"/>
+    <row r="62" customFormat="1"/>
+    <row r="63" customFormat="1"/>
+    <row r="64" customFormat="1"/>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
+    <row r="69" customFormat="1"/>
+    <row r="70" customFormat="1"/>
+    <row r="71" customFormat="1"/>
+    <row r="72" customFormat="1"/>
+    <row r="73" customFormat="1"/>
+    <row r="74" customFormat="1"/>
+    <row r="75" customFormat="1"/>
+    <row r="76" customFormat="1"/>
+    <row r="77" customFormat="1"/>
+    <row r="78" customFormat="1"/>
+    <row r="79" customFormat="1"/>
+    <row r="80" customFormat="1"/>
+    <row r="81" customFormat="1"/>
+    <row r="82" customFormat="1"/>
+    <row r="83" customFormat="1"/>
+    <row r="84" customFormat="1"/>
+    <row r="85" customFormat="1"/>
+    <row r="86" customFormat="1"/>
+    <row r="87" customFormat="1"/>
+    <row r="88" customFormat="1"/>
+    <row r="89" customFormat="1"/>
+    <row r="90" customFormat="1"/>
+    <row r="91" customFormat="1"/>
+    <row r="92" customFormat="1"/>
+    <row r="93" customFormat="1"/>
+    <row r="94" customFormat="1"/>
+    <row r="95" customFormat="1"/>
+    <row r="96" customFormat="1"/>
+    <row r="97" customFormat="1"/>
+    <row r="98" customFormat="1"/>
+    <row r="99" customFormat="1"/>
+    <row r="100" customFormat="1"/>
+    <row r="101" customFormat="1"/>
+    <row r="102" customFormat="1"/>
+    <row r="103" customFormat="1"/>
+    <row r="104" customFormat="1"/>
+    <row r="105" customFormat="1"/>
+    <row r="106" customFormat="1"/>
+    <row r="107" customFormat="1"/>
+    <row r="108" customFormat="1"/>
+    <row r="109" customFormat="1"/>
+    <row r="110" customFormat="1"/>
+    <row r="111" customFormat="1"/>
+    <row r="112" customFormat="1"/>
+    <row r="113" customFormat="1"/>
+    <row r="114" customFormat="1"/>
+    <row r="115" customFormat="1"/>
+    <row r="116" customFormat="1"/>
+    <row r="117" customFormat="1"/>
+    <row r="118" customFormat="1"/>
+    <row r="119" customFormat="1"/>
+    <row r="120" customFormat="1"/>
+    <row r="121" customFormat="1"/>
+    <row r="122" customFormat="1"/>
+    <row r="123" customFormat="1"/>
+    <row r="124" customFormat="1"/>
+    <row r="125" customFormat="1"/>
+    <row r="126" customFormat="1"/>
+    <row r="127" customFormat="1"/>
+    <row r="128" customFormat="1"/>
+    <row r="129" customFormat="1"/>
+    <row r="130" customFormat="1"/>
+    <row r="131" customFormat="1"/>
+    <row r="132" customFormat="1"/>
+    <row r="133" customFormat="1"/>
+    <row r="134" customFormat="1"/>
+    <row r="135" customFormat="1"/>
+    <row r="136" customFormat="1"/>
+    <row r="137" customFormat="1"/>
+    <row r="138" customFormat="1"/>
+    <row r="139" customFormat="1"/>
+    <row r="140" customFormat="1"/>
+    <row r="141" customFormat="1"/>
+    <row r="142" customFormat="1"/>
+    <row r="143" customFormat="1"/>
+    <row r="144" customFormat="1"/>
+    <row r="145" customFormat="1"/>
+    <row r="146" customFormat="1"/>
+    <row r="147" customFormat="1"/>
+    <row r="148" customFormat="1"/>
+    <row r="149" customFormat="1"/>
+    <row r="150" customFormat="1"/>
+    <row r="151" customFormat="1"/>
+    <row r="152" customFormat="1"/>
+    <row r="153" customFormat="1"/>
+    <row r="154" customFormat="1"/>
+    <row r="155" customFormat="1"/>
+    <row r="156" customFormat="1"/>
+    <row r="157" customFormat="1"/>
+    <row r="158" customFormat="1"/>
+    <row r="159" customFormat="1"/>
+    <row r="160" customFormat="1"/>
+    <row r="161" customFormat="1"/>
+    <row r="162" customFormat="1"/>
+    <row r="163" customFormat="1"/>
+    <row r="164" customFormat="1"/>
+    <row r="165" customFormat="1"/>
+    <row r="166" customFormat="1"/>
+    <row r="167" customFormat="1"/>
+    <row r="168" customFormat="1"/>
+    <row r="169" customFormat="1"/>
+    <row r="170" customFormat="1"/>
+    <row r="171" customFormat="1"/>
+    <row r="172" customFormat="1"/>
+    <row r="173" customFormat="1"/>
+    <row r="174" customFormat="1"/>
+    <row r="175" customFormat="1"/>
+    <row r="176" customFormat="1"/>
+    <row r="177" customFormat="1"/>
+    <row r="178" customFormat="1"/>
+    <row r="179" customFormat="1"/>
+    <row r="180" customFormat="1"/>
+    <row r="181" customFormat="1"/>
+    <row r="182" customFormat="1"/>
+    <row r="183" customFormat="1"/>
+    <row r="184" customFormat="1"/>
+    <row r="185" customFormat="1"/>
+    <row r="186" customFormat="1"/>
+    <row r="187" customFormat="1"/>
+    <row r="188" customFormat="1"/>
+    <row r="189" customFormat="1"/>
+    <row r="190" customFormat="1"/>
+    <row r="191" customFormat="1"/>
+    <row r="192" customFormat="1"/>
+    <row r="193" customFormat="1"/>
+    <row r="194" customFormat="1"/>
+    <row r="195" customFormat="1"/>
+    <row r="196" customFormat="1"/>
+    <row r="197" customFormat="1"/>
+    <row r="198" customFormat="1"/>
+    <row r="199" customFormat="1"/>
+    <row r="200" customFormat="1"/>
+    <row r="201" customFormat="1"/>
+    <row r="202" customFormat="1"/>
+    <row r="203" customFormat="1"/>
+    <row r="204" customFormat="1"/>
+    <row r="205" customFormat="1"/>
+    <row r="206" customFormat="1"/>
+    <row r="207" customFormat="1"/>
+    <row r="208" customFormat="1"/>
+    <row r="209" customFormat="1"/>
+    <row r="210" customFormat="1"/>
+    <row r="211" customFormat="1"/>
+    <row r="212" customFormat="1"/>
+    <row r="213" customFormat="1"/>
+    <row r="214" customFormat="1"/>
+    <row r="215" customFormat="1"/>
+    <row r="216" customFormat="1"/>
+    <row r="217" customFormat="1"/>
+    <row r="218" customFormat="1"/>
+    <row r="219" customFormat="1"/>
+    <row r="220" customFormat="1"/>
+    <row r="221" customFormat="1"/>
+    <row r="222" customFormat="1"/>
+    <row r="223" customFormat="1"/>
+    <row r="224" customFormat="1"/>
+    <row r="225" customFormat="1"/>
+    <row r="226" customFormat="1"/>
+    <row r="227" customFormat="1"/>
+    <row r="228" customFormat="1"/>
+    <row r="229" customFormat="1"/>
+    <row r="230" customFormat="1"/>
+    <row r="231" customFormat="1"/>
+    <row r="232" customFormat="1"/>
+    <row r="233" customFormat="1"/>
+    <row r="234" customFormat="1"/>
+    <row r="235" customFormat="1"/>
+    <row r="236" customFormat="1"/>
+    <row r="237" customFormat="1"/>
+    <row r="238" customFormat="1"/>
+    <row r="239" customFormat="1"/>
+    <row r="240" customFormat="1"/>
+    <row r="241" customFormat="1"/>
+    <row r="242" customFormat="1"/>
+    <row r="243" customFormat="1"/>
+    <row r="244" customFormat="1"/>
+    <row r="245" customFormat="1"/>
+    <row r="246" customFormat="1"/>
+    <row r="247" customFormat="1"/>
+    <row r="248" customFormat="1"/>
+    <row r="249" customFormat="1"/>
+    <row r="250" customFormat="1"/>
+    <row r="251" customFormat="1"/>
+    <row r="252" customFormat="1"/>
+    <row r="253" customFormat="1"/>
+    <row r="254" customFormat="1"/>
+    <row r="255" customFormat="1"/>
+    <row r="256" customFormat="1"/>
+    <row r="257" customFormat="1"/>
+    <row r="258" customFormat="1"/>
+    <row r="259" customFormat="1"/>
+    <row r="260" customFormat="1"/>
+    <row r="261" customFormat="1"/>
+    <row r="262" customFormat="1"/>
+    <row r="263" customFormat="1"/>
+    <row r="264" customFormat="1"/>
+    <row r="265" customFormat="1"/>
+    <row r="266" customFormat="1"/>
+    <row r="267" customFormat="1"/>
+    <row r="268" customFormat="1"/>
+    <row r="269" customFormat="1"/>
+    <row r="270" customFormat="1"/>
+    <row r="271" customFormat="1"/>
+    <row r="272" customFormat="1"/>
+    <row r="273" customFormat="1"/>
+    <row r="274" customFormat="1"/>
+    <row r="275" customFormat="1"/>
+    <row r="276" customFormat="1"/>
+    <row r="277" customFormat="1"/>
+    <row r="278" customFormat="1"/>
+    <row r="279" customFormat="1"/>
+    <row r="280" customFormat="1"/>
+    <row r="281" customFormat="1"/>
+    <row r="282" customFormat="1"/>
+    <row r="283" customFormat="1"/>
+    <row r="284" customFormat="1"/>
+    <row r="285" customFormat="1"/>
+    <row r="286" customFormat="1"/>
+    <row r="287" customFormat="1"/>
+    <row r="288" customFormat="1"/>
+    <row r="289" customFormat="1"/>
+    <row r="290" customFormat="1"/>
+    <row r="291" customFormat="1"/>
+    <row r="292" customFormat="1"/>
+    <row r="293" customFormat="1"/>
+    <row r="294" customFormat="1"/>
+    <row r="295" customFormat="1"/>
+    <row r="296" customFormat="1"/>
+    <row r="297" customFormat="1"/>
+    <row r="298" customFormat="1"/>
+    <row r="299" customFormat="1"/>
+    <row r="300" customFormat="1"/>
+    <row r="301" customFormat="1"/>
+    <row r="302" customFormat="1"/>
+    <row r="303" customFormat="1"/>
+    <row r="304" customFormat="1"/>
+    <row r="305" customFormat="1"/>
+    <row r="306" customFormat="1"/>
+    <row r="307" customFormat="1"/>
+    <row r="308" customFormat="1"/>
+    <row r="309" customFormat="1"/>
+    <row r="310" customFormat="1"/>
+    <row r="311" customFormat="1"/>
+    <row r="312" customFormat="1"/>
+    <row r="313" customFormat="1"/>
+    <row r="314" customFormat="1"/>
+    <row r="315" customFormat="1"/>
+    <row r="316" customFormat="1"/>
+    <row r="317" customFormat="1"/>
+    <row r="318" customFormat="1"/>
+    <row r="319" customFormat="1"/>
+    <row r="320" customFormat="1"/>
+    <row r="321" customFormat="1"/>
+    <row r="322" customFormat="1"/>
+    <row r="323" customFormat="1"/>
+    <row r="324" customFormat="1"/>
+    <row r="325" customFormat="1"/>
+    <row r="326" customFormat="1"/>
+    <row r="327" customFormat="1"/>
+    <row r="328" customFormat="1"/>
+    <row r="329" customFormat="1"/>
+    <row r="330" customFormat="1"/>
+    <row r="331" customFormat="1"/>
+    <row r="332" customFormat="1"/>
+    <row r="333" customFormat="1"/>
+    <row r="334" customFormat="1"/>
+    <row r="335" customFormat="1"/>
+    <row r="336" customFormat="1"/>
+    <row r="337" customFormat="1"/>
+    <row r="338" customFormat="1"/>
+    <row r="339" customFormat="1"/>
+    <row r="340" customFormat="1"/>
+    <row r="341" customFormat="1"/>
+    <row r="342" customFormat="1"/>
+    <row r="343" customFormat="1"/>
+    <row r="344" customFormat="1"/>
+    <row r="345" customFormat="1"/>
+    <row r="346" customFormat="1"/>
+    <row r="347" customFormat="1"/>
+    <row r="348" customFormat="1"/>
+    <row r="349" customFormat="1"/>
+    <row r="350" customFormat="1"/>
+    <row r="351" customFormat="1"/>
+    <row r="352" customFormat="1"/>
+    <row r="353" customFormat="1"/>
+    <row r="354" customFormat="1"/>
+    <row r="355" customFormat="1"/>
+    <row r="356" customFormat="1"/>
+    <row r="357" customFormat="1"/>
+    <row r="358" customFormat="1"/>
+    <row r="359" customFormat="1"/>
+    <row r="360" customFormat="1"/>
+    <row r="361" customFormat="1"/>
+    <row r="362" customFormat="1"/>
+    <row r="363" customFormat="1"/>
+    <row r="364" customFormat="1"/>
+    <row r="365" customFormat="1"/>
+    <row r="366" customFormat="1"/>
+    <row r="367" customFormat="1"/>
+    <row r="368" customFormat="1"/>
+    <row r="369" customFormat="1"/>
+    <row r="370" customFormat="1"/>
+    <row r="371" customFormat="1"/>
+    <row r="372" customFormat="1"/>
+    <row r="373" customFormat="1"/>
+    <row r="374" customFormat="1"/>
+    <row r="375" customFormat="1"/>
+    <row r="376" customFormat="1"/>
+    <row r="377" customFormat="1"/>
+    <row r="378" customFormat="1"/>
+    <row r="379" customFormat="1"/>
+    <row r="380" customFormat="1"/>
+    <row r="381" customFormat="1"/>
+    <row r="382" customFormat="1"/>
+    <row r="383" customFormat="1"/>
+    <row r="384" customFormat="1"/>
+    <row r="385" customFormat="1"/>
+    <row r="386" customFormat="1"/>
+    <row r="387" customFormat="1"/>
+    <row r="388" customFormat="1"/>
+    <row r="389" customFormat="1"/>
+    <row r="390" customFormat="1"/>
+    <row r="391" customFormat="1"/>
+    <row r="392" customFormat="1"/>
+    <row r="393" customFormat="1"/>
+    <row r="394" customFormat="1"/>
+    <row r="395" customFormat="1"/>
+    <row r="396" customFormat="1"/>
+    <row r="397" customFormat="1"/>
+    <row r="398" customFormat="1"/>
+    <row r="399" customFormat="1"/>
+    <row r="400" customFormat="1"/>
+    <row r="401" customFormat="1"/>
+    <row r="402" customFormat="1"/>
+    <row r="403" customFormat="1"/>
+    <row r="404" customFormat="1"/>
+    <row r="405" customFormat="1"/>
+    <row r="406" customFormat="1"/>
+    <row r="407" customFormat="1"/>
+    <row r="408" customFormat="1"/>
+    <row r="409" customFormat="1"/>
+    <row r="410" customFormat="1"/>
+    <row r="411" customFormat="1"/>
+    <row r="412" customFormat="1"/>
+    <row r="413" customFormat="1"/>
+    <row r="414" customFormat="1"/>
+    <row r="415" customFormat="1"/>
+    <row r="416" customFormat="1"/>
+    <row r="417" customFormat="1"/>
+    <row r="418" customFormat="1"/>
+    <row r="419" customFormat="1"/>
+    <row r="420" customFormat="1"/>
+    <row r="421" customFormat="1"/>
+    <row r="422" customFormat="1"/>
+    <row r="423" customFormat="1"/>
+    <row r="424" customFormat="1"/>
+    <row r="425" customFormat="1"/>
+    <row r="426" customFormat="1"/>
+    <row r="427" customFormat="1"/>
+    <row r="428" customFormat="1"/>
+    <row r="429" customFormat="1"/>
+    <row r="430" customFormat="1"/>
+    <row r="431" customFormat="1"/>
+    <row r="432" customFormat="1"/>
+    <row r="433" customFormat="1"/>
+    <row r="434" customFormat="1"/>
+    <row r="435" customFormat="1"/>
+    <row r="436" customFormat="1"/>
+    <row r="437" customFormat="1"/>
+    <row r="438" customFormat="1"/>
+    <row r="439" customFormat="1"/>
+    <row r="440" customFormat="1"/>
+    <row r="441" customFormat="1"/>
+    <row r="442" customFormat="1"/>
+    <row r="443" customFormat="1"/>
+    <row r="444" customFormat="1"/>
+    <row r="445" customFormat="1"/>
+    <row r="446" customFormat="1"/>
+    <row r="447" customFormat="1"/>
+    <row r="448" customFormat="1"/>
+    <row r="449" customFormat="1"/>
+    <row r="450" customFormat="1"/>
+    <row r="451" customFormat="1"/>
+    <row r="452" customFormat="1"/>
+    <row r="453" customFormat="1"/>
+    <row r="454" customFormat="1"/>
+    <row r="455" customFormat="1"/>
+    <row r="456" customFormat="1"/>
+    <row r="457" customFormat="1"/>
+    <row r="458" customFormat="1"/>
+    <row r="459" customFormat="1"/>
+    <row r="460" customFormat="1"/>
+    <row r="461" customFormat="1"/>
+    <row r="462" customFormat="1"/>
+    <row r="463" customFormat="1"/>
+    <row r="464" customFormat="1"/>
+    <row r="465" customFormat="1"/>
+    <row r="466" customFormat="1"/>
+    <row r="467" customFormat="1"/>
+    <row r="468" customFormat="1"/>
+    <row r="469" customFormat="1"/>
+    <row r="470" customFormat="1"/>
+    <row r="471" customFormat="1"/>
+    <row r="472" customFormat="1"/>
+    <row r="473" customFormat="1"/>
+    <row r="474" customFormat="1"/>
+    <row r="475" customFormat="1"/>
+    <row r="476" customFormat="1"/>
+    <row r="477" customFormat="1"/>
+    <row r="478" customFormat="1"/>
+    <row r="479" customFormat="1"/>
+    <row r="480" customFormat="1"/>
+    <row r="481" customFormat="1"/>
+    <row r="482" customFormat="1"/>
+    <row r="483" customFormat="1"/>
+    <row r="484" customFormat="1"/>
+    <row r="485" customFormat="1"/>
+    <row r="486" customFormat="1"/>
+    <row r="487" customFormat="1"/>
+    <row r="488" customFormat="1"/>
+    <row r="489" customFormat="1"/>
+    <row r="490" customFormat="1"/>
+    <row r="491" customFormat="1"/>
+    <row r="492" customFormat="1"/>
+    <row r="493" customFormat="1"/>
+    <row r="494" customFormat="1"/>
+    <row r="495" customFormat="1"/>
+    <row r="496" customFormat="1"/>
+    <row r="497" customFormat="1"/>
+    <row r="498" customFormat="1"/>
+    <row r="499" customFormat="1"/>
+    <row r="500" customFormat="1"/>
+    <row r="501" customFormat="1"/>
+    <row r="502" customFormat="1"/>
+    <row r="503" customFormat="1"/>
+    <row r="504" customFormat="1"/>
+    <row r="505" customFormat="1"/>
+    <row r="506" customFormat="1"/>
+    <row r="507" customFormat="1"/>
+    <row r="508" customFormat="1"/>
+    <row r="509" customFormat="1"/>
+    <row r="510" customFormat="1"/>
+    <row r="511" customFormat="1"/>
+    <row r="512" customFormat="1"/>
+    <row r="513" customFormat="1"/>
+    <row r="514" customFormat="1"/>
+    <row r="515" customFormat="1"/>
+    <row r="516" customFormat="1"/>
+    <row r="517" customFormat="1"/>
+    <row r="518" customFormat="1"/>
+    <row r="519" customFormat="1"/>
+    <row r="520" customFormat="1"/>
+    <row r="521" customFormat="1"/>
+    <row r="522" customFormat="1"/>
+    <row r="523" customFormat="1"/>
+    <row r="524" customFormat="1"/>
+    <row r="525" customFormat="1"/>
+    <row r="526" customFormat="1"/>
+    <row r="527" customFormat="1"/>
+    <row r="528" customFormat="1"/>
+    <row r="529" customFormat="1"/>
+    <row r="530" customFormat="1"/>
+    <row r="531" customFormat="1"/>
+    <row r="532" customFormat="1"/>
+    <row r="533" customFormat="1"/>
+    <row r="534" customFormat="1"/>
+    <row r="535" customFormat="1"/>
+    <row r="536" customFormat="1"/>
+    <row r="537" customFormat="1"/>
+    <row r="538" customFormat="1"/>
+    <row r="539" customFormat="1"/>
+    <row r="540" customFormat="1"/>
+    <row r="541" customFormat="1"/>
+    <row r="542" customFormat="1"/>
+    <row r="543" customFormat="1"/>
+    <row r="544" customFormat="1"/>
+    <row r="545" customFormat="1"/>
+    <row r="546" customFormat="1"/>
+    <row r="547" customFormat="1"/>
+    <row r="548" customFormat="1"/>
+    <row r="549" customFormat="1"/>
+    <row r="550" customFormat="1"/>
+    <row r="551" customFormat="1"/>
+    <row r="552" customFormat="1"/>
+    <row r="553" customFormat="1"/>
+    <row r="554" customFormat="1"/>
+    <row r="555" customFormat="1"/>
+    <row r="556" customFormat="1"/>
+    <row r="557" customFormat="1"/>
+    <row r="558" customFormat="1"/>
+    <row r="559" customFormat="1"/>
+    <row r="560" customFormat="1"/>
+    <row r="561" customFormat="1"/>
+    <row r="562" customFormat="1"/>
+    <row r="563" customFormat="1"/>
+    <row r="564" customFormat="1"/>
+    <row r="565" customFormat="1"/>
+    <row r="566" customFormat="1"/>
+    <row r="567" customFormat="1"/>
+    <row r="568" customFormat="1"/>
+    <row r="569" customFormat="1"/>
+    <row r="570" customFormat="1"/>
+    <row r="571" customFormat="1"/>
+    <row r="572" customFormat="1"/>
+    <row r="573" customFormat="1"/>
+    <row r="574" customFormat="1"/>
+    <row r="575" customFormat="1"/>
+    <row r="576" customFormat="1"/>
+    <row r="577" customFormat="1"/>
+    <row r="578" customFormat="1"/>
+    <row r="579" customFormat="1"/>
+    <row r="580" customFormat="1"/>
+    <row r="581" customFormat="1"/>
+    <row r="582" customFormat="1"/>
+    <row r="583" customFormat="1"/>
+    <row r="584" customFormat="1"/>
+    <row r="585" customFormat="1"/>
+    <row r="586" customFormat="1"/>
+    <row r="587" customFormat="1"/>
+    <row r="588" customFormat="1"/>
+    <row r="589" customFormat="1"/>
+    <row r="590" customFormat="1"/>
+    <row r="591" customFormat="1"/>
+    <row r="592" customFormat="1"/>
+    <row r="593" customFormat="1"/>
+    <row r="594" customFormat="1"/>
+    <row r="595" customFormat="1"/>
+    <row r="596" customFormat="1"/>
+    <row r="597" customFormat="1"/>
+    <row r="598" customFormat="1"/>
+    <row r="599" customFormat="1"/>
+    <row r="600" customFormat="1"/>
+    <row r="601" customFormat="1"/>
+    <row r="602" customFormat="1"/>
+    <row r="603" customFormat="1"/>
+    <row r="604" customFormat="1"/>
+    <row r="605" customFormat="1"/>
+    <row r="606" customFormat="1"/>
+    <row r="607" customFormat="1"/>
+    <row r="608" customFormat="1"/>
+    <row r="609" customFormat="1"/>
+    <row r="610" customFormat="1"/>
+    <row r="611" customFormat="1"/>
+    <row r="612" customFormat="1"/>
+    <row r="613" customFormat="1"/>
+    <row r="614" customFormat="1"/>
+    <row r="615" customFormat="1"/>
+    <row r="616" customFormat="1"/>
+    <row r="617" customFormat="1"/>
+    <row r="618" customFormat="1"/>
+    <row r="619" customFormat="1"/>
+    <row r="620" customFormat="1"/>
+    <row r="621" customFormat="1"/>
+    <row r="622" customFormat="1"/>
+    <row r="623" customFormat="1"/>
+    <row r="624" customFormat="1"/>
+    <row r="625" customFormat="1"/>
+    <row r="626" customFormat="1"/>
+    <row r="627" customFormat="1"/>
+    <row r="628" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cf6ddc61-6b1c-4d58-9daa-562ef749da72" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3dcd26c-518f-4103-85e3-288a7f67eda7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E8A14C35611B44FAE08C7282FBC43BB" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8c258f84c8883adaba6693857568905">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3dcd26c-518f-4103-85e3-288a7f67eda7" xmlns:ns3="cf6ddc61-6b1c-4d58-9daa-562ef749da72" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b6e5ccfb7e00e6117bade8c94a8a5e1" ns2:_="" ns3:_="">
     <xsd:import namespace="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
@@ -2341,34 +2369,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cf6ddc61-6b1c-4d58-9daa-562ef749da72" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d3dcd26c-518f-4103-85e3-288a7f67eda7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98984EF-E07C-4BF9-9AAF-45F254BACD82}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10105A06-B244-4B9C-9441-A9A396878C07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9FB5DA2-6E59-4213-AE03-7E92DEF1F695}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9FB5DA2-6E59-4213-AE03-7E92DEF1F695}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cf6ddc61-6b1c-4d58-9daa-562ef749da72"/>
+    <ds:schemaRef ds:uri="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10105A06-B244-4B9C-9441-A9A396878C07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98984EF-E07C-4BF9-9AAF-45F254BACD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d3dcd26c-518f-4103-85e3-288a7f67eda7"/>
+    <ds:schemaRef ds:uri="cf6ddc61-6b1c-4d58-9daa-562ef749da72"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>